--- a/Lab4/Lab4_Results/Book1.xlsx
+++ b/Lab4/Lab4_Results/Book1.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hilton\Documents\GitHub\ECE420\Lab4\Lab4_Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/415a1bfae29eba75/Documents/GitHub/ECE420/Lab4/Lab4_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF4971A-F919-4A56-A50E-404783E56A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="176" documentId="13_ncr:1_{DFF4971A-F919-4A56-A50E-404783E56A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C369191-1F3E-4512-8ED9-BCE4B4CC6D9D}"/>
   <bookViews>
-    <workbookView xWindow="14910" yWindow="0" windowWidth="15180" windowHeight="20090" xr2:uid="{92C3F119-6FF8-4B8E-B91F-1592650B14B7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{92C3F119-6FF8-4B8E-B91F-1592650B14B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>Single</t>
   </si>
@@ -45,6 +46,15 @@
   </si>
   <si>
     <t># of Nodes:</t>
+  </si>
+  <si>
+    <t>Num Proc</t>
+  </si>
+  <si>
+    <t>Single Machine</t>
+  </si>
+  <si>
+    <t>Cluster</t>
   </si>
 </sst>
 </file>
@@ -749,6 +759,1923 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1400" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Runtime</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1400" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> by Node and Process Count for Single Machine</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10274509803921569"/>
+          <c:y val="2.94252192273213E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10706795737770258"/>
+          <c:y val="0.13292466171785147"/>
+          <c:w val="0.82169805244932603"/>
+          <c:h val="0.6359237060638443"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1112 Nodes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$E$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.2544199999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0168400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3908100000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9831000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3261771</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0332442999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3363-4975-92C4-D82E2A787906}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>5424 Nodes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$E$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.1036030999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56401279999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40476630000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32565559999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4308345</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2869172999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3363-4975-92C4-D82E2A787906}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>10000 Nodes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$E$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.5717517000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7976447</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2556335999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96372820000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6363249999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0048243000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3363-4975-92C4-D82E2A787906}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="708174959"/>
+        <c:axId val="70518159"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="708174959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="1050" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Number of Processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.4047169467306086"/>
+              <c:y val="0.83923658767503495"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70518159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="70518159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Avg.</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="1100" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> Runtime (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3488693557893309E-2"/>
+              <c:y val="0.36371126962276845"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="708174959"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29224835586989428"/>
+          <c:y val="0.90729124340067069"/>
+          <c:w val="0.47550640728732441"/>
+          <c:h val="5.7472559330609567E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1400" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Runtime by</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1400" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Node and Process Count for Cluster</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12882382290811573"/>
+          <c:y val="0.1376600386126888"/>
+          <c:w val="0.82856958142006332"/>
+          <c:h val="0.64987844615751333"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1112 Nodes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet2!$E$10:$L$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet2!$E$10:$F$10,Sheet2!$H$10:$L$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet2!$E$11:$L$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet2!$E$11:$F$11,Sheet2!$H$11:$L$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.5414299999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9059400000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1786100000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9940200000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13370789999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80952219999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6175139000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A0EF-47AB-9C3E-270FD18899CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>5424 Nodes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet2!$E$10:$L$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet2!$E$10:$F$10,Sheet2!$H$10:$L$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet2!$E$12:$L$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet2!$E$12:$F$12,Sheet2!$H$12:$L$12)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0743286000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60403870000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3725888</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29846679999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34301809999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.63691529999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3505269000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A0EF-47AB-9C3E-270FD18899CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>10000 Nodes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet2!$E$10:$L$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet2!$E$10:$F$10,Sheet2!$H$10:$L$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet2!$E$13:$L$13</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet2!$E$13:$F$13,Sheet2!$H$13:$L$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.5687739999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8636302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99814150000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84372060000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8581162</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95371340000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9452075</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A0EF-47AB-9C3E-270FD18899CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="845145743"/>
+        <c:axId val="839379983"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="845145743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Number of Processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.3794055824321107"/>
+              <c:y val="0.85354134765022949"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="839379983"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="839379983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Avg. Runtime (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.5553520199398659E-2"/>
+              <c:y val="0.30560089904915944"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="845145743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23807965885509727"/>
+          <c:y val="0.91490295036385039"/>
+          <c:w val="0.5205716502295924"/>
+          <c:h val="7.3324394982512558E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1112 Nodes Single</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$H$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.9831000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3261771</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9838-4DF5-91CE-CF8A989AE044}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>5424 Nodes Single</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$H$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$5:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.32565559999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4308345</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-9838-4DF5-91CE-CF8A989AE044}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>10000 Nodes Single</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$H$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$6:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.96372820000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6363249999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-9838-4DF5-91CE-CF8A989AE044}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>1112 Nodes Cluster</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$11:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5.1786100000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9940200000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-9838-4DF5-91CE-CF8A989AE044}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>5424 Nodes Cluster</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$12:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.3725888</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29846679999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-9838-4DF5-91CE-CF8A989AE044}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>10000 Nodes Cluster</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$13:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.99814150000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84372060000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-9838-4DF5-91CE-CF8A989AE044}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1539493328"/>
+        <c:axId val="1482279648"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1539493328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1482279648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1482279648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1539493328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -789,7 +2716,1636 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1331,6 +4887,123 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D415884-76D6-6B9D-4ED8-E5A285F9FE5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CAD6052-0A59-8AF6-9B50-E8D06E9E0BC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2C46288-7A1C-A56D-14C8-6867F8CA09C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1630,15 +5303,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443BEE5C-E9DD-4200-A24A-0C3D6FB19640}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1650,7 +5323,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -1676,7 +5349,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1708,7 +5381,7 @@
         <v>1.6894431000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4">
         <v>5424</v>
@@ -1738,7 +5411,7 @@
         <v>1.5110330000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5">
         <v>10000</v>
@@ -1768,10 +5441,304 @@
         <v>1.9304872</v>
       </c>
     </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8">
+        <v>5424</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD4BBD93-96F2-4075-A8DC-E4CAF00F2D8E}">
+  <dimension ref="C2:M13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="T44" sqref="T44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1112</v>
+      </c>
+      <c r="E4">
+        <v>6.2544199999999994E-2</v>
+      </c>
+      <c r="F4">
+        <v>3.0168400000000001E-2</v>
+      </c>
+      <c r="G4">
+        <v>2.3908100000000002E-2</v>
+      </c>
+      <c r="H4">
+        <v>1.9831000000000001E-2</v>
+      </c>
+      <c r="I4">
+        <v>1.3261771</v>
+      </c>
+      <c r="J4">
+        <v>2.0332442999999998</v>
+      </c>
+      <c r="K4">
+        <v>10.543836600000001</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C5" s="1"/>
+      <c r="D5">
+        <v>5424</v>
+      </c>
+      <c r="E5">
+        <v>1.1036030999999999</v>
+      </c>
+      <c r="F5">
+        <v>0.56401279999999998</v>
+      </c>
+      <c r="G5">
+        <v>0.40476630000000002</v>
+      </c>
+      <c r="H5">
+        <v>0.32565559999999999</v>
+      </c>
+      <c r="I5">
+        <v>1.4308345</v>
+      </c>
+      <c r="J5">
+        <v>2.2869172999999998</v>
+      </c>
+      <c r="K5">
+        <v>10.878915900000001</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+      <c r="D6">
+        <v>10000</v>
+      </c>
+      <c r="E6">
+        <v>3.5717517000000001</v>
+      </c>
+      <c r="F6">
+        <v>1.7976447</v>
+      </c>
+      <c r="G6">
+        <v>1.2556335999999999</v>
+      </c>
+      <c r="H6">
+        <v>0.96372820000000003</v>
+      </c>
+      <c r="I6">
+        <v>2.6363249999999998</v>
+      </c>
+      <c r="J6">
+        <v>3.0048243000000001</v>
+      </c>
+      <c r="K6">
+        <v>12.446719699999999</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <v>7</v>
+      </c>
+      <c r="L10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1112</v>
+      </c>
+      <c r="E11">
+        <v>6.5414299999999995E-2</v>
+      </c>
+      <c r="F11">
+        <v>4.9059400000000003E-2</v>
+      </c>
+      <c r="H11">
+        <v>5.1786100000000002E-2</v>
+      </c>
+      <c r="I11">
+        <v>7.9940200000000003E-2</v>
+      </c>
+      <c r="J11">
+        <v>0.13370789999999999</v>
+      </c>
+      <c r="K11">
+        <v>0.80952219999999997</v>
+      </c>
+      <c r="L11">
+        <v>1.6175139000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+      <c r="D12">
+        <v>5424</v>
+      </c>
+      <c r="E12">
+        <v>1.0743286000000001</v>
+      </c>
+      <c r="F12">
+        <v>0.60403870000000004</v>
+      </c>
+      <c r="H12">
+        <v>0.3725888</v>
+      </c>
+      <c r="I12">
+        <v>0.29846679999999998</v>
+      </c>
+      <c r="J12">
+        <v>0.34301809999999999</v>
+      </c>
+      <c r="K12">
+        <v>0.63691529999999996</v>
+      </c>
+      <c r="L12">
+        <v>2.3505269000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+      <c r="D13">
+        <v>10000</v>
+      </c>
+      <c r="E13">
+        <v>3.5687739999999999</v>
+      </c>
+      <c r="F13">
+        <v>1.8636302</v>
+      </c>
+      <c r="H13">
+        <v>0.99814150000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.84372060000000004</v>
+      </c>
+      <c r="J13">
+        <v>0.8581162</v>
+      </c>
+      <c r="K13">
+        <v>0.95371340000000004</v>
+      </c>
+      <c r="L13">
+        <v>2.9452075</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="C2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Lab4/Lab4_Results/Book1.xlsx
+++ b/Lab4/Lab4_Results/Book1.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/415a1bfae29eba75/Documents/GitHub/ECE420/Lab4/Lab4_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="176" documentId="13_ncr:1_{DFF4971A-F919-4A56-A50E-404783E56A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C369191-1F3E-4512-8ED9-BCE4B4CC6D9D}"/>
+  <xr:revisionPtr revIDLastSave="428" documentId="13_ncr:1_{DFF4971A-F919-4A56-A50E-404783E56A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E1BBE29-B50B-4D51-924D-3C34218C09EA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{92C3F119-6FF8-4B8E-B91F-1592650B14B7}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" activeTab="1" xr2:uid="{92C3F119-6FF8-4B8E-B91F-1592650B14B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Tables" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Single</t>
   </si>
@@ -48,21 +48,44 @@
     <t># of Nodes:</t>
   </si>
   <si>
-    <t>Num Proc</t>
+    <t>Speedup by num nodes</t>
   </si>
   <si>
-    <t>Single Machine</t>
+    <t>Efficiency by num nodes</t>
   </si>
   <si>
-    <t>Cluster</t>
+    <t>4 Computer Cluster Performance Data</t>
+  </si>
+  <si>
+    <t>Num Processes:</t>
+  </si>
+  <si>
+    <t>Runtime (s) by num nodes</t>
+  </si>
+  <si>
+    <t>Runtime (s) by num of nodes</t>
+  </si>
+  <si>
+    <t>Single Machine Performance Data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -78,10 +101,245 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="20">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -90,11 +348,92 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -890,7 +1229,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$3:$J$3</c:f>
+              <c:f>Tables!$E$3:$J$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -917,9 +1256,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$J$4</c:f>
+              <c:f>Tables!$E$4:$J$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>6.2544199999999994E-2</c:v>
@@ -968,7 +1307,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$3:$J$3</c:f>
+              <c:f>Tables!$E$3:$J$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -995,9 +1334,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$5:$J$5</c:f>
+              <c:f>Tables!$E$5:$J$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1.1036030999999999</c:v>
@@ -1044,7 +1383,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$3:$J$3</c:f>
+              <c:f>Tables!$E$3:$J$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1071,9 +1410,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$6:$J$6</c:f>
+              <c:f>Tables!$E$6:$J$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3.5717517000000001</c:v>
@@ -1328,7 +1667,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1571,14 +1910,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet2!$E$10:$L$10</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Sheet2!$E$10:$F$10,Sheet2!$H$10:$L$10)</c:f>
+              <c:f>Tables!$E$19:$K$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1608,16 +1940,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet2!$E$11:$L$11</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Sheet2!$E$11:$F$11,Sheet2!$H$11:$L$11)</c:f>
+              <c:f>Tables!$E$20:$K$20</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>6.5414299999999995E-2</c:v>
@@ -1667,14 +1992,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet2!$E$10:$L$10</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Sheet2!$E$10:$F$10,Sheet2!$H$10:$L$10)</c:f>
+              <c:f>Tables!$E$19:$K$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1704,16 +2022,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet2!$E$12:$L$12</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Sheet2!$E$12:$F$12,Sheet2!$H$12:$L$12)</c:f>
+              <c:f>Tables!$E$21:$K$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1.0743286000000001</c:v>
@@ -1769,14 +2080,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet2!$E$10:$L$10</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Sheet2!$E$10:$F$10,Sheet2!$H$10:$L$10)</c:f>
+              <c:f>Tables!$E$19:$K$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1806,16 +2110,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet2!$E$13:$L$13</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Sheet2!$E$13:$F$13,Sheet2!$H$13:$L$13)</c:f>
+              <c:f>Tables!$E$22:$K$22</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3.5687739999999999</c:v>
@@ -2173,509 +2470,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>1112 Nodes Single</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="40000"/>
-                <a:lumOff val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$H$3:$I$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$H$4:$I$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1.9831000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3261771</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-9838-4DF5-91CE-CF8A989AE044}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>5424 Nodes Single</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$H$3:$I$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$H$5:$I$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.32565559999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.4308345</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-9838-4DF5-91CE-CF8A989AE044}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>10000 Nodes Single</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="002060"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$H$3:$I$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$H$6:$I$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.96372820000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.6363249999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-9838-4DF5-91CE-CF8A989AE044}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>1112 Nodes Cluster</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$H$11:$I$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>5.1786100000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.9940200000000003E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-9838-4DF5-91CE-CF8A989AE044}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>5424 Nodes Cluster</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$H$12:$I$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.3725888</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.29846679999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-9838-4DF5-91CE-CF8A989AE044}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>10000 Nodes Cluster</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$H$13:$I$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.99814150000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.84372060000000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-9838-4DF5-91CE-CF8A989AE044}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1539493328"/>
-        <c:axId val="1482279648"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1539493328"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1482279648"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1482279648"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1539493328"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2796,46 +2590,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3843,509 +3597,6 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4893,16 +4144,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>623887</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4929,16 +4180,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>357187</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4958,42 +4209,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2C46288-7A1C-A56D-14C8-6867F8CA09C1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5305,13 +4520,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443BEE5C-E9DD-4200-A24A-0C3D6FB19640}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5323,7 +4538,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -5349,7 +4564,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -5381,7 +4596,7 @@
         <v>1.6894431000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4">
         <v>5424</v>
@@ -5411,7 +4626,7 @@
         <v>1.5110330000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5">
         <v>10000</v>
@@ -5441,7 +4656,7 @@
         <v>1.9304872</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -5449,13 +4664,13 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8">
         <v>5424</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9">
         <v>10000</v>
@@ -5474,273 +4689,729 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD4BBD93-96F2-4075-A8DC-E4CAF00F2D8E}">
-  <dimension ref="C2:M13"/>
+  <dimension ref="C1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="T44" sqref="T44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M58" sqref="M58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.73046875" customWidth="1"/>
+    <col min="5" max="10" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C2" s="1" t="s">
+    <row r="1" spans="3:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="3:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="3:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C3" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26">
+        <v>1</v>
+      </c>
+      <c r="F3" s="27">
+        <v>2</v>
+      </c>
+      <c r="G3" s="27">
+        <v>3</v>
+      </c>
+      <c r="H3" s="27">
         <v>4</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="I3" s="27">
+        <v>5</v>
+      </c>
+      <c r="J3" s="27">
+        <v>7</v>
+      </c>
+      <c r="K3" s="28">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+    <row r="4" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C4" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="30">
+        <v>1112</v>
+      </c>
+      <c r="E4" s="39">
+        <v>6.2544199999999994E-2</v>
+      </c>
+      <c r="F4" s="39">
+        <v>3.0168400000000001E-2</v>
+      </c>
+      <c r="G4" s="39">
+        <v>2.3908100000000002E-2</v>
+      </c>
+      <c r="H4" s="39">
+        <v>1.9831000000000001E-2</v>
+      </c>
+      <c r="I4" s="39">
+        <v>1.3261771</v>
+      </c>
+      <c r="J4" s="39">
+        <v>2.0332442999999998</v>
+      </c>
+      <c r="K4" s="40">
+        <v>10.543836600000001</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C5" s="19"/>
+      <c r="D5" s="20">
+        <v>5424</v>
+      </c>
+      <c r="E5" s="13">
+        <v>1.1036030999999999</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.56401279999999998</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0.40476630000000002</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0.32565559999999999</v>
+      </c>
+      <c r="I5" s="13">
+        <v>1.4308345</v>
+      </c>
+      <c r="J5" s="13">
+        <v>2.2869172999999998</v>
+      </c>
+      <c r="K5" s="14">
+        <v>10.878915900000001</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C6" s="31"/>
+      <c r="D6" s="32">
+        <v>10000</v>
+      </c>
+      <c r="E6" s="41">
+        <v>3.5717517000000001</v>
+      </c>
+      <c r="F6" s="41">
+        <v>1.7976447</v>
+      </c>
+      <c r="G6" s="41">
+        <v>1.2556335999999999</v>
+      </c>
+      <c r="H6" s="41">
+        <v>0.96372820000000003</v>
+      </c>
+      <c r="I6" s="41">
+        <v>2.6363249999999998</v>
+      </c>
+      <c r="J6" s="41">
+        <v>3.0048243000000001</v>
+      </c>
+      <c r="K6" s="42">
+        <v>12.446719699999999</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E3">
+      <c r="D8" s="35">
+        <v>1112</v>
+      </c>
+      <c r="E8" s="36">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="F8" s="36">
+        <v>2.0731692764614627</v>
+      </c>
+      <c r="G8" s="36">
+        <v>2.6160255310961551</v>
+      </c>
+      <c r="H8" s="36">
+        <v>3.1538601179970747</v>
+      </c>
+      <c r="I8" s="36">
+        <v>4.716127280436376E-2</v>
+      </c>
+      <c r="J8" s="36">
+        <v>3.0760789542112574E-2</v>
+      </c>
+      <c r="K8" s="37">
+        <v>5.9318256126996496E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C9" s="19"/>
+      <c r="D9" s="21">
+        <v>5424</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1.9566986777605047</v>
+      </c>
+      <c r="G9" s="10">
+        <v>2.7265192285029656</v>
+      </c>
+      <c r="H9" s="10">
+        <v>3.3888657219467437</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0.77130031460661586</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0.48257236936377196</v>
+      </c>
+      <c r="K9" s="11">
+        <v>0.10144421651425763</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C10" s="31"/>
+      <c r="D10" s="22">
+        <v>10000</v>
+      </c>
+      <c r="E10" s="15">
+        <v>1</v>
+      </c>
+      <c r="F10" s="15">
+        <v>1.986906366981195</v>
+      </c>
+      <c r="G10" s="15">
+        <v>2.8445811739985296</v>
+      </c>
+      <c r="H10" s="15">
+        <v>3.7061815769217916</v>
+      </c>
+      <c r="I10" s="15">
+        <v>1.3548222241188019</v>
+      </c>
+      <c r="J10" s="15">
+        <v>1.1886723959201209</v>
+      </c>
+      <c r="K10" s="16">
+        <v>0.28696329523673619</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C11" s="23"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="14"/>
+    </row>
+    <row r="12" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C12" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="35">
+        <v>1112</v>
+      </c>
+      <c r="E12" s="36">
+        <v>1</v>
+      </c>
+      <c r="F12" s="36">
+        <v>1.0365846382307313</v>
+      </c>
+      <c r="G12" s="36">
+        <v>0.87200851036538507</v>
+      </c>
+      <c r="H12" s="36">
+        <v>0.78846502949926867</v>
+      </c>
+      <c r="I12" s="36">
+        <v>9.432254560872752E-3</v>
+      </c>
+      <c r="J12" s="36">
+        <v>4.3943985060160822E-3</v>
+      </c>
+      <c r="K12" s="37">
+        <v>3.954550408466433E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C13" s="19"/>
+      <c r="D13" s="21">
+        <v>5424</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.97834933888025233</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0.9088397428343219</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0.84721643048668593</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0.15426006292132316</v>
+      </c>
+      <c r="J13" s="10">
+        <v>6.893890990911028E-2</v>
+      </c>
+      <c r="K13" s="11">
+        <v>6.7629477676171747E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C14" s="31"/>
+      <c r="D14" s="22">
+        <v>10000</v>
+      </c>
+      <c r="E14" s="15">
+        <v>1</v>
+      </c>
+      <c r="F14" s="15">
+        <v>0.99345318349059752</v>
+      </c>
+      <c r="G14" s="15">
+        <v>0.94819372466617657</v>
+      </c>
+      <c r="H14" s="15">
+        <v>0.92654539423044791</v>
+      </c>
+      <c r="I14" s="15">
+        <v>0.27096444482376036</v>
+      </c>
+      <c r="J14" s="15">
+        <v>0.16981034227430297</v>
+      </c>
+      <c r="K14" s="16">
+        <v>1.9130886349115746E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C15" s="5"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C16" s="5"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="18" spans="3:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="3:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C19" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="26">
+        <v>1</v>
+      </c>
+      <c r="F19" s="27">
         <v>2</v>
       </c>
-      <c r="G3">
+      <c r="G19" s="27">
+        <v>4</v>
+      </c>
+      <c r="H19" s="27">
+        <v>5</v>
+      </c>
+      <c r="I19" s="27">
+        <v>6</v>
+      </c>
+      <c r="J19" s="27">
+        <v>7</v>
+      </c>
+      <c r="K19" s="28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C20" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="30">
+        <v>1112</v>
+      </c>
+      <c r="E20" s="39">
+        <v>6.5414299999999995E-2</v>
+      </c>
+      <c r="F20" s="39">
+        <v>4.9059400000000003E-2</v>
+      </c>
+      <c r="G20" s="39">
+        <v>5.1786100000000002E-2</v>
+      </c>
+      <c r="H20" s="39">
+        <v>7.9940200000000003E-2</v>
+      </c>
+      <c r="I20" s="39">
+        <v>0.13370789999999999</v>
+      </c>
+      <c r="J20" s="39">
+        <v>0.80952219999999997</v>
+      </c>
+      <c r="K20" s="40">
+        <v>1.6175139000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C21" s="19"/>
+      <c r="D21" s="20">
+        <v>5424</v>
+      </c>
+      <c r="E21" s="13">
+        <v>1.0743286000000001</v>
+      </c>
+      <c r="F21" s="13">
+        <v>0.60403870000000004</v>
+      </c>
+      <c r="G21" s="13">
+        <v>0.3725888</v>
+      </c>
+      <c r="H21" s="13">
+        <v>0.29846679999999998</v>
+      </c>
+      <c r="I21" s="13">
+        <v>0.34301809999999999</v>
+      </c>
+      <c r="J21" s="13">
+        <v>0.63691529999999996</v>
+      </c>
+      <c r="K21" s="14">
+        <v>2.3505269000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C22" s="31"/>
+      <c r="D22" s="32">
+        <v>10000</v>
+      </c>
+      <c r="E22" s="41">
+        <v>3.5687739999999999</v>
+      </c>
+      <c r="F22" s="41">
+        <v>1.8636302</v>
+      </c>
+      <c r="G22" s="41">
+        <v>0.99814150000000001</v>
+      </c>
+      <c r="H22" s="41">
+        <v>0.84372060000000004</v>
+      </c>
+      <c r="I22" s="41">
+        <v>0.8581162</v>
+      </c>
+      <c r="J22" s="41">
+        <v>0.95371340000000004</v>
+      </c>
+      <c r="K22" s="42">
+        <v>2.9452075</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C23" s="33"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C24" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H3">
+      <c r="D24" s="35">
+        <v>1112</v>
+      </c>
+      <c r="E24" s="36">
+        <f>$E$20/E20</f>
+        <v>1</v>
+      </c>
+      <c r="F24" s="36">
+        <f>$E$20/F20</f>
+        <v>1.3333693441012322</v>
+      </c>
+      <c r="G24" s="36">
+        <f>$E$20/G20</f>
+        <v>1.2631632812665945</v>
+      </c>
+      <c r="H24" s="36">
+        <f>$E$20/H20</f>
+        <v>0.81829042209051261</v>
+      </c>
+      <c r="I24" s="36">
+        <f>$E$20/I20</f>
+        <v>0.48923287255278108</v>
+      </c>
+      <c r="J24" s="36">
+        <f>$E$20/J20</f>
+        <v>8.0806060661461787E-2</v>
+      </c>
+      <c r="K24" s="37">
+        <f>$E$20/K20</f>
+        <v>4.0441259886545636E-2</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C25" s="19"/>
+      <c r="D25" s="21">
+        <v>5424</v>
+      </c>
+      <c r="E25" s="10">
+        <f>$E$21/E21</f>
+        <v>1</v>
+      </c>
+      <c r="F25" s="10">
+        <f>$E$21/F21</f>
+        <v>1.7785757766845072</v>
+      </c>
+      <c r="G25" s="10">
+        <f>$E$21/G21</f>
+        <v>2.8834162486902453</v>
+      </c>
+      <c r="H25" s="10">
+        <f>$E$21/H21</f>
+        <v>3.5994911326820946</v>
+      </c>
+      <c r="I25" s="10">
+        <f>$E$21/I21</f>
+        <v>3.1319880787631909</v>
+      </c>
+      <c r="J25" s="10">
+        <f>$E$21/J21</f>
+        <v>1.6867683976189616</v>
+      </c>
+      <c r="K25" s="11">
+        <f>$E$21/K21</f>
+        <v>0.45705862800378927</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C26" s="31"/>
+      <c r="D26" s="22">
+        <v>10000</v>
+      </c>
+      <c r="E26" s="15">
+        <f>$E$22/E22</f>
+        <v>1</v>
+      </c>
+      <c r="F26" s="15">
+        <f>$E$22/F22</f>
+        <v>1.9149582358130921</v>
+      </c>
+      <c r="G26" s="15">
+        <f>$E$22/G22</f>
+        <v>3.5754189160554888</v>
+      </c>
+      <c r="H26" s="15">
+        <f>$E$22/H22</f>
+        <v>4.2298054592954113</v>
+      </c>
+      <c r="I26" s="15">
+        <f>$E$22/I22</f>
+        <v>4.1588470186205546</v>
+      </c>
+      <c r="J26" s="15">
+        <f>$E$22/J22</f>
+        <v>3.7419774116626647</v>
+      </c>
+      <c r="K26" s="16">
+        <f>$E$22/K22</f>
+        <v>1.2117224338183303</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C27" s="23"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="14"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C28" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="I3">
-        <v>5</v>
-      </c>
-      <c r="J3">
-        <v>7</v>
-      </c>
-      <c r="K3">
-        <v>15</v>
+      <c r="D28" s="35">
+        <v>1112</v>
+      </c>
+      <c r="E28" s="36">
+        <f>E24/E19</f>
+        <v>1</v>
+      </c>
+      <c r="F28" s="36">
+        <f>F24/F19</f>
+        <v>0.6666846720506161</v>
+      </c>
+      <c r="G28" s="36">
+        <f>G24/G19</f>
+        <v>0.31579082031664862</v>
+      </c>
+      <c r="H28" s="36">
+        <f>H24/H19</f>
+        <v>0.16365808441810253</v>
+      </c>
+      <c r="I28" s="36">
+        <f>I24/I19</f>
+        <v>8.1538812092130181E-2</v>
+      </c>
+      <c r="J28" s="36">
+        <f>J24/J19</f>
+        <v>1.1543722951637398E-2</v>
+      </c>
+      <c r="K28" s="37">
+        <f>K24/K19</f>
+        <v>2.6960839924363759E-3</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>1112</v>
-      </c>
-      <c r="E4">
-        <v>6.2544199999999994E-2</v>
-      </c>
-      <c r="F4">
-        <v>3.0168400000000001E-2</v>
-      </c>
-      <c r="G4">
-        <v>2.3908100000000002E-2</v>
-      </c>
-      <c r="H4">
-        <v>1.9831000000000001E-2</v>
-      </c>
-      <c r="I4">
-        <v>1.3261771</v>
-      </c>
-      <c r="J4">
-        <v>2.0332442999999998</v>
-      </c>
-      <c r="K4">
-        <v>10.543836600000001</v>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C29" s="19"/>
+      <c r="D29" s="21">
+        <v>5424</v>
+      </c>
+      <c r="E29" s="10">
+        <f>E25/E19</f>
+        <v>1</v>
+      </c>
+      <c r="F29" s="10">
+        <f>F25/F19</f>
+        <v>0.88928788834225359</v>
+      </c>
+      <c r="G29" s="10">
+        <f>G25/G19</f>
+        <v>0.72085406217256132</v>
+      </c>
+      <c r="H29" s="10">
+        <f>H25/H19</f>
+        <v>0.71989822653641888</v>
+      </c>
+      <c r="I29" s="10">
+        <f>I25/I19</f>
+        <v>0.52199801312719851</v>
+      </c>
+      <c r="J29" s="10">
+        <f>J25/J19</f>
+        <v>0.24096691394556594</v>
+      </c>
+      <c r="K29" s="11">
+        <f>K25/K19</f>
+        <v>3.0470575200252616E-2</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C5" s="1"/>
-      <c r="D5">
-        <v>5424</v>
-      </c>
-      <c r="E5">
-        <v>1.1036030999999999</v>
-      </c>
-      <c r="F5">
-        <v>0.56401279999999998</v>
-      </c>
-      <c r="G5">
-        <v>0.40476630000000002</v>
-      </c>
-      <c r="H5">
-        <v>0.32565559999999999</v>
-      </c>
-      <c r="I5">
-        <v>1.4308345</v>
-      </c>
-      <c r="J5">
-        <v>2.2869172999999998</v>
-      </c>
-      <c r="K5">
-        <v>10.878915900000001</v>
-      </c>
-    </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C6" s="1"/>
-      <c r="D6">
+    <row r="30" spans="3:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C30" s="31"/>
+      <c r="D30" s="22">
         <v>10000</v>
       </c>
-      <c r="E6">
-        <v>3.5717517000000001</v>
-      </c>
-      <c r="F6">
-        <v>1.7976447</v>
-      </c>
-      <c r="G6">
-        <v>1.2556335999999999</v>
-      </c>
-      <c r="H6">
-        <v>0.96372820000000003</v>
-      </c>
-      <c r="I6">
-        <v>2.6363249999999998</v>
-      </c>
-      <c r="J6">
-        <v>3.0048243000000001</v>
-      </c>
-      <c r="K6">
-        <v>12.446719699999999</v>
-      </c>
-    </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10">
+      <c r="E30" s="15">
+        <f>E26/E19</f>
         <v>1</v>
       </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>4</v>
-      </c>
-      <c r="I10">
-        <v>5</v>
-      </c>
-      <c r="J10">
-        <v>6</v>
-      </c>
-      <c r="K10">
-        <v>7</v>
-      </c>
-      <c r="L10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>1112</v>
-      </c>
-      <c r="E11">
-        <v>6.5414299999999995E-2</v>
-      </c>
-      <c r="F11">
-        <v>4.9059400000000003E-2</v>
-      </c>
-      <c r="H11">
-        <v>5.1786100000000002E-2</v>
-      </c>
-      <c r="I11">
-        <v>7.9940200000000003E-2</v>
-      </c>
-      <c r="J11">
-        <v>0.13370789999999999</v>
-      </c>
-      <c r="K11">
-        <v>0.80952219999999997</v>
-      </c>
-      <c r="L11">
-        <v>1.6175139000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C12" s="1"/>
-      <c r="D12">
-        <v>5424</v>
-      </c>
-      <c r="E12">
-        <v>1.0743286000000001</v>
-      </c>
-      <c r="F12">
-        <v>0.60403870000000004</v>
-      </c>
-      <c r="H12">
-        <v>0.3725888</v>
-      </c>
-      <c r="I12">
-        <v>0.29846679999999998</v>
-      </c>
-      <c r="J12">
-        <v>0.34301809999999999</v>
-      </c>
-      <c r="K12">
-        <v>0.63691529999999996</v>
-      </c>
-      <c r="L12">
-        <v>2.3505269000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
-      <c r="D13">
-        <v>10000</v>
-      </c>
-      <c r="E13">
-        <v>3.5687739999999999</v>
-      </c>
-      <c r="F13">
-        <v>1.8636302</v>
-      </c>
-      <c r="H13">
-        <v>0.99814150000000001</v>
-      </c>
-      <c r="I13">
-        <v>0.84372060000000004</v>
-      </c>
-      <c r="J13">
-        <v>0.8581162</v>
-      </c>
-      <c r="K13">
-        <v>0.95371340000000004</v>
-      </c>
-      <c r="L13">
-        <v>2.9452075</v>
+      <c r="F30" s="15">
+        <f>F26/F19</f>
+        <v>0.95747911790654605</v>
+      </c>
+      <c r="G30" s="15">
+        <f>G26/G19</f>
+        <v>0.8938547290138722</v>
+      </c>
+      <c r="H30" s="15">
+        <f>H26/H19</f>
+        <v>0.8459610918590823</v>
+      </c>
+      <c r="I30" s="15">
+        <f>I26/I19</f>
+        <v>0.69314116977009244</v>
+      </c>
+      <c r="J30" s="15">
+        <f>J26/J19</f>
+        <v>0.53456820166609498</v>
+      </c>
+      <c r="K30" s="16">
+        <f>K26/K19</f>
+        <v>8.0781495587888691E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="12">
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C9:M9"/>
-    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>